--- a/Data/EC/NIT-9001297283.xlsx
+++ b/Data/EC/NIT-9001297283.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46003623-B47D-4721-86AE-9319B3589E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECC7B5B-67DE-46C7-A2B2-95ADB7560344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57127A21-A80D-417B-937B-EF764AA04E27}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CD13497-39FD-4D34-9C94-A6F879D1E0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="124">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,304 +74,307 @@
     <t>1710</t>
   </si>
   <si>
+    <t>64696714</t>
+  </si>
+  <si>
+    <t>LUZ DARY VIANA ZULUAGA</t>
+  </si>
+  <si>
+    <t>73566340</t>
+  </si>
+  <si>
+    <t>LEONARDO FAVIO QUESADA GOMEZ</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1149188901</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO OROZCO ZUNIGA</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>919861901051997</t>
+  </si>
+  <si>
+    <t>MIRMARY CAROLINA ASCENCION CESPEDES</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>73151166</t>
+  </si>
+  <si>
+    <t>JORGE DE AVILA RICARDO</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>45752311</t>
   </si>
   <si>
     <t>MARIDIS AMPARO ZULUAGA CELIS</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>64696714</t>
-  </si>
-  <si>
-    <t>LUZ DARY VIANA ZULUAGA</t>
-  </si>
-  <si>
-    <t>73566340</t>
-  </si>
-  <si>
-    <t>LEONARDO FAVIO QUESADA GOMEZ</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1149188901</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO OROZCO ZUNIGA</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>73151166</t>
-  </si>
-  <si>
-    <t>JORGE DE AVILA RICARDO</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>919861901051997</t>
-  </si>
-  <si>
-    <t>MIRMARY CAROLINA ASCENCION CESPEDES</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -470,7 +473,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -483,9 +488,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -685,23 +688,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,10 +732,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,7 +788,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEBF1AD-7D7C-CA93-C6BE-00AA713A8F33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701372EC-1A74-08C3-B114-4A671D599B7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,8 +1139,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D588C83A-BD0D-40EC-83B4-94FC812A3E7D}">
-  <dimension ref="B2:J178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BBD659-0A90-4189-9C25-510F81F95F0D}">
+  <dimension ref="B2:J180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1161,7 +1164,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1206,7 +1209,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1238,12 +1241,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5108949</v>
+        <v>5175310</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1254,17 +1257,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1291,13 +1294,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1334,13 +1337,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>19673</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1351,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>19673</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1374,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1397,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1420,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>29166</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1443,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1466,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1489,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1509,22 +1512,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1535,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1555,22 +1558,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1578,22 +1581,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1601,22 +1604,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1624,22 +1627,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1647,22 +1650,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1670,22 +1673,22 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1696,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
         <v>877803</v>
@@ -1716,22 +1719,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1742,16 +1745,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F35" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G35" s="18">
         <v>877803</v>
@@ -1762,22 +1765,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1788,16 +1791,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G37" s="18">
         <v>877803</v>
@@ -1808,22 +1811,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1834,16 +1837,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="18">
         <v>877803</v>
@@ -1854,22 +1857,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1877,22 +1880,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1900,22 +1903,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1923,22 +1926,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1946,22 +1949,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1969,22 +1972,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1992,22 +1995,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2015,22 +2018,22 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2038,22 +2041,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2061,22 +2064,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2084,22 +2087,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2110,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2130,22 +2133,22 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2156,13 +2159,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2176,22 +2179,22 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2202,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2222,22 +2225,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2248,10 +2251,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>54</v>
@@ -2268,22 +2271,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2294,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2314,22 +2317,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2340,13 +2343,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2360,22 +2363,22 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2386,13 +2389,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2406,22 +2409,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2432,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2452,22 +2455,22 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2478,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2498,22 +2501,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2524,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2544,22 +2547,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2570,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F71" s="18">
         <v>35112</v>
@@ -2590,22 +2593,22 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F72" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2616,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
@@ -2636,22 +2639,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F74" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2662,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F75" s="18">
         <v>35112</v>
@@ -2682,22 +2685,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F76" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2708,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F77" s="18">
         <v>35112</v>
@@ -2728,19 +2731,19 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F78" s="18">
-        <v>19673</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2754,19 +2757,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F79" s="18">
-        <v>29509</v>
+        <v>35112</v>
       </c>
       <c r="G79" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2774,22 +2777,22 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F80" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2800,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F81" s="18">
-        <v>19673</v>
+        <v>35112</v>
       </c>
       <c r="G81" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2820,22 +2823,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2846,19 +2849,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2866,22 +2869,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2892,19 +2895,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G85" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2912,22 +2915,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
-        <v>29166</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2938,19 +2941,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F87" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G87" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2958,22 +2961,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F88" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2984,19 +2987,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F89" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G89" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3004,22 +3007,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F90" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3027,22 +3030,22 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3050,16 +3053,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3073,22 +3076,22 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3096,16 +3099,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3119,22 +3122,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3142,16 +3145,16 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3165,22 +3168,22 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3188,16 +3191,16 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3211,22 +3214,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3234,16 +3237,16 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3257,22 +3260,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3280,16 +3283,16 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3303,22 +3306,22 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3326,16 +3329,16 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3349,22 +3352,22 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3372,16 +3375,16 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3395,22 +3398,22 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3418,16 +3421,16 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3441,22 +3444,22 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3464,16 +3467,16 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3487,22 +3490,22 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3510,16 +3513,16 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3533,22 +3536,22 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3556,16 +3559,16 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3579,22 +3582,22 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3602,16 +3605,16 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3625,22 +3628,22 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3648,16 +3651,16 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3671,22 +3674,22 @@
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3694,16 +3697,16 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3717,22 +3720,22 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3740,16 +3743,16 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3763,22 +3766,22 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3786,16 +3789,16 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3809,22 +3812,22 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3832,16 +3835,16 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3855,22 +3858,22 @@
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3878,16 +3881,16 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3901,22 +3904,22 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3924,16 +3927,16 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3947,22 +3950,22 @@
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3970,16 +3973,16 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -3993,22 +3996,22 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4016,16 +4019,16 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4039,22 +4042,22 @@
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4062,16 +4065,16 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4085,22 +4088,22 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E137" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C137" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4108,16 +4111,16 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4131,22 +4134,22 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D139" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4154,16 +4157,16 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C140" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4177,22 +4180,22 @@
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D141" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E141" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4200,16 +4203,16 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D142" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4223,22 +4226,22 @@
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4246,16 +4249,16 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4269,22 +4272,22 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4292,16 +4295,16 @@
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4315,22 +4318,22 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4338,16 +4341,16 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4361,22 +4364,22 @@
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G149" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4384,16 +4387,16 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4407,22 +4410,22 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G151" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4430,16 +4433,16 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4453,22 +4456,22 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4476,16 +4479,16 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4499,22 +4502,22 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4522,16 +4525,16 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4545,22 +4548,22 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G157" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4568,16 +4571,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4591,22 +4594,22 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4614,13 +4617,13 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E160" s="16" t="s">
         <v>105</v>
@@ -4637,22 +4640,22 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E161" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F161" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G161" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4660,16 +4663,16 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4683,22 +4686,22 @@
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4706,16 +4709,16 @@
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4729,22 +4732,22 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G165" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4752,16 +4755,16 @@
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4775,22 +4778,22 @@
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F167" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G167" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4798,13 +4801,13 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>109</v>
@@ -4821,22 +4824,22 @@
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4844,16 +4847,16 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4867,78 +4870,124 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="20"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E172" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F172" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G172" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H172" s="25"/>
-      <c r="I172" s="25"/>
-      <c r="J172" s="26"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="32" t="s">
+      <c r="B172" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F172" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G172" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="20"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F173" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G173" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F174" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G174" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="26"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="H179" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C177" s="32"/>
-      <c r="H177" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C178" s="32"/>
-      <c r="H178" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="C180" s="32"/>
+      <c r="H180" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="H180:J180"/>
+    <mergeCell ref="H179:J179"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
